--- a/Marketing/cnu.roomme.xlsx
+++ b/Marketing/cnu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B541"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iamdamiek</t>
+          <t>samuel_stubbs_</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>stoobyl13</t>
+          <t>reagan.a.brown</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sarbjeetrahi</t>
+          <t>susan.vorster.5</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hollyhaydon_12</t>
+          <t>cat.camarota</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kendraweigand</t>
+          <t>samneto85</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hishellyd</t>
+          <t>dstnyswiss</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bonner.jackson</t>
+          <t>melissaaa5110</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sethmorriis</t>
+          <t>amysid01</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>samanthaschutt10</t>
+          <t>henry.cnu27</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>theadrianamyles</t>
+          <t>samantha.p.carrier</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>_audreybates</t>
+          <t>casey337</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sam__j64</t>
+          <t>nounou9753</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>elf.apollo</t>
+          <t>natal3a_</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rapture_ry</t>
+          <t>kroberts_76</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>trent.kirchoff</t>
+          <t>impossiblewhopper193</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>shannonhernandez89</t>
+          <t>fooslee1</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jeffrey_kent</t>
+          <t>_zakk_</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>audreylihos</t>
+          <t>jamiegraham22</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>samneto85</t>
+          <t>mack_.2023</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>maddiee_stokes</t>
+          <t>da_hoar2005</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zachdavid210</t>
+          <t>cady0r</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>water_sauce_drink</t>
+          <t>meriliccaleb</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sliderock</t>
+          <t>pageehenry</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>its.sarah_ro</t>
+          <t>madiison222</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>jacob_p_17_17</t>
+          <t>theonlyyev</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>j.zicari3</t>
+          <t>itz.theresaa</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>stary.sky471</t>
+          <t>tatumfosterr</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>shantelleviel</t>
+          <t>brian_to_crazy645</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>gracietbennett</t>
+          <t>dani_cling</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>potomacriverhall_cnu</t>
+          <t>the.kuz1</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>katebweaver_</t>
+          <t>aj.muir3</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>connor_hennett</t>
+          <t>cas_cnu</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>xialnb</t>
+          <t>amandarooker</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>matt_digiovanna67</t>
+          <t>kendraweigand</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>alexf472</t>
+          <t>logan_fields1</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>missy_jordan123</t>
+          <t>nicolemburch_</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sammyfoos</t>
+          <t>_satarnoori</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>silentkillaspam</t>
+          <t>abby.rumbaugh</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bellaandsmalls</t>
+          <t>therealnoahharris</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bonnie.y.donnelly</t>
+          <t>diane_hoffman_80</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>just_joseph_myguy</t>
+          <t>ethan.pace16</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nellzmc</t>
+          <t>palmer_bogdan645</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>greti529</t>
+          <t>cnu.onion</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>carolinewhitehead293</t>
+          <t>bcf_1231</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>clayton_rankin</t>
+          <t>ohman497</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethan.pace16</t>
+          <t>alexf472</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ryan_bend3r</t>
+          <t>abby_davis201714</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>triplethreatminority</t>
+          <t>antis0cial23</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>an.eric.trager</t>
+          <t>eli_novario</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>wishfulwhale03</t>
+          <t>candace.slaw</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>j.baer1</t>
+          <t>siefkeremma</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>stemandthistleva</t>
+          <t>chrissymay3535</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>laura.pomeroy_</t>
+          <t>danmarchinkoski</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>aldrin.eleanor</t>
+          <t>radersydney</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>stephenlamarburton5</t>
+          <t>ourpopsy</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>neva_.grace</t>
+          <t>ryan_bend3r</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>justin_moravek</t>
+          <t>relayforlife_cnu</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>iam_charlieclawson</t>
+          <t>adenkieffaber</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dylanmur25</t>
+          <t>kaylagraceec</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>amy.terminelloo</t>
+          <t>andrew.w.hoge</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ahs.cnu</t>
+          <t>rajxnnnn_</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ryana.tchison</t>
+          <t>xxchloeking</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>a.m.y.rid</t>
+          <t>huz.jaden</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>isabellamcdonald._</t>
+          <t>aaaaaaa_yden</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>caroline_cyrille</t>
+          <t>landonpeterson_3</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zach.ilich</t>
+          <t>zoey_lyn_913</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>cnu.cornhole</t>
+          <t>potomacriverhall_cnu</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>francis.miller.1971</t>
+          <t>kirashurtliff</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ryan_derder</t>
+          <t>gma_farley</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>acopeland_90</t>
+          <t>momand3</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bitanyaaloto</t>
+          <t>rileyespring</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>breom._</t>
+          <t>katherinessavage</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mackenzie_little_40</t>
+          <t>dawne.ruggiero</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>caroline.woodward_04</t>
+          <t>aaronwernow</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>itsivym</t>
+          <t>samanthaschutt10</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>rileyespring</t>
+          <t>kelseyyedwardss</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>alex_devers</t>
+          <t>kimmiehug</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>adrienn_gr24</t>
+          <t>toahollenbeck_</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cnu_ifc</t>
+          <t>caroline.lucille.c</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sadthursday246</t>
+          <t>jackorrock</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,207 +1248,207 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>crump081206</t>
+          <t>texastovb</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>nick_frazier05</t>
+          <t>jamesfinan13</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>christmas_maniac2.0</t>
+          <t>bchiles_12</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>gracewynberry</t>
+          <t>_onfyre4god_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>c.i_1727</t>
+          <t>ryleigh.greeves</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>c_francke13</t>
+          <t>cadencewelchh</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>worthjaney</t>
+          <t>2e2m2t</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ck1sus</t>
+          <t>m_deveraux</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kayla.el863</t>
+          <t>alice.lindd</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>claraprill</t>
+          <t>sydhakanen</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>goatzeez</t>
+          <t>rufcnu</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>nora.deshazo</t>
+          <t>melibel1222</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>kaylaamonett</t>
+          <t>bonner.jackson</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>jennifer_81105</t>
+          <t>grantgarrison777</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>alidosserr</t>
+          <t>nettymatt</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>kellybecker01</t>
+          <t>spookky98</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>nfrancke</t>
+          <t>na.te622</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>katie_bshub</t>
+          <t>joshriutta</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mary_chess</t>
+          <t>bitanyaaloto</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>jonah_d04</t>
+          <t>ryana.tchison</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ella_banilla</t>
+          <t>rapture_ry</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>johnarugg</t>
+          <t>delaney.reper</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>francisca_frits19</t>
+          <t>nancystopper</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>skysurfer_v2</t>
+          <t>robertjdillingham</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>vill.wu</t>
+          <t>mrsdeedy</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>cnu_rha</t>
+          <t>lukeoeaddy05</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>grant_seif</t>
+          <t>mlsbrantley</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>bryced271</t>
+          <t>_sethwhipkey</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>cocoxcraft</t>
+          <t>marky.121</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>shekinahtung</t>
+          <t>grant_seif</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>hughbmartin366</t>
+          <t>djjonnibravo</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tdorsey13206</t>
+          <t>mattstakem</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>dstnyswiss</t>
+          <t>stoobyl13</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>adalee.williamss</t>
+          <t>livcoburn_</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>amy_hawkins_694</t>
+          <t>shilohbthompson</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>meld_406</t>
+          <t>kfarns15</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>brieanamendiola</t>
+          <t>_samantha.rivas_</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>palmer_bogdan645</t>
+          <t>drea_alonso22</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>madisondinges</t>
+          <t>meredithallmond</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>sandrawhite0566</t>
+          <t>joyfuloguibe</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>daniellerivers_</t>
+          <t>karen.papa.31</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>desiree_devonne</t>
+          <t>jeb_veatch_</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ben_gibson34</t>
+          <t>amy_bippert</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mwsmitty26</t>
+          <t>abi._321</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cullen.webster</t>
+          <t>emelithshiley</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>brianweiser_</t>
+          <t>qstorm70</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>bennettspruell</t>
+          <t>lucygoosy_11</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jwhunter70</t>
+          <t>squeakybird999</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>biv.on.top</t>
+          <t>smiling_savoyard_studios</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>kit_394</t>
+          <t>ethandpope</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>lovefromgabby</t>
+          <t>adrienn_gr24</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>timopark_13</t>
+          <t>tommy._.ennis</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jfgordon50</t>
+          <t>mary_chess</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>brynndalba</t>
+          <t>jennifer.l.persinger</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sydneysmith230</t>
+          <t>james__mcq</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>andreaalonso403</t>
+          <t>luhvashley</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jcgrowney</t>
+          <t>simara.alex</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>unhabiy</t>
+          <t>_loganmcnabb</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>andie.mm</t>
+          <t>karlijoy15</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>gdub16</t>
+          <t>j.baer1</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_hadley_rose_</t>
+          <t>immanmabalot</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>miakat.31</t>
+          <t>missy_jordan123</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kfarns15</t>
+          <t>j_julianna24</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>swimgirl413</t>
+          <t>_.mx.sinister_</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tomdreennis</t>
+          <t>bennett_carlton</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>kate_and_bennettmom</t>
+          <t>slartichoke</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>lisadaniel7174</t>
+          <t>ahs.cnu</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ccaras36</t>
+          <t>rickpitterle</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jen_webb_</t>
+          <t>sierra.pratzner</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ipufffy</t>
+          <t>willr_ow</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>aviannamcwhorter</t>
+          <t>djdevine1</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>maryannreesee</t>
+          <t>caroline.woodward_04</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>tw1sted_a55a55a1n</t>
+          <t>jasminee.williamss</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>axolotldreamss</t>
+          <t>katebweaver_</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>skirk26</t>
+          <t>sam__j64</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ramiyahstukes</t>
+          <t>kayleewilliams_1</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>jill.orrock</t>
+          <t>lisah5940</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ssarahhendricks</t>
+          <t>kaeleigh_ann21</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>andreafarag</t>
+          <t>cnuintervarsity</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>michael_messeh</t>
+          <t>triplethreatminority</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>emilyy_lacyn</t>
+          <t>breom._</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>kimmiehug</t>
+          <t>ellieggarrison</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jenadcock</t>
+          <t>wendymcintyre61</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>luhvashley</t>
+          <t>ipufffy</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>corinnehaynie</t>
+          <t>robertadaviswrenn</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>toahollenbeck_</t>
+          <t>shane.gobell</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>charisse.bonsu</t>
+          <t>taleentimani</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>grantgarrison777</t>
+          <t>dannyl826</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>alexandra__acevedo</t>
+          <t>c.grover34</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>madiison222</t>
+          <t>henry_monner</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>jabennett92</t>
+          <t>_lynsey_cox_</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>chrissymay3535</t>
+          <t>connor_isnt_toxic</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>shilohbthompson</t>
+          <t>_zacharycharles_</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>hannahhbowmann</t>
+          <t>ssarahhendricks</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>dom4__</t>
+          <t>surfrider_cnu</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>lukeoeaddy05</t>
+          <t>kristawyman</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>waylandpeter</t>
+          <t>esnyder26</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>cnonn23</t>
+          <t>camden_king_9</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>perfectfam22</t>
+          <t>nick_sheets_18</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>hokiewife</t>
+          <t>sara.hobbs.9022</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>reagan.a.brown</t>
+          <t>_lillianstowe</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>_mel_die</t>
+          <t>cnucomm</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>healy_charlie</t>
+          <t>mett_to</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ryguy6405</t>
+          <t>the.3rdeye.therapist</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ogrowney4</t>
+          <t>cnuwrugby</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>summerrr.lee</t>
+          <t>mterrell01</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>kellykapowski223</t>
+          <t>lilly_8978</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>laceywilde_</t>
+          <t>lmd.1dk</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>felicianoalisa</t>
+          <t>d.warnick75</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>bubba_shifflett_</t>
+          <t>austin_mahomesss</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>dawne.ruggiero</t>
+          <t>spanish_cnu</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>bryson._70</t>
+          <t>redcupcnu</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>juliet.truslow</t>
+          <t>klowe2210</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>meriliccaleb</t>
+          <t>graceealynn</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>xander_kent05</t>
+          <t>sociologycnu</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>theonlyyev</t>
+          <t>francis.miller.1971</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>_lynsey_cox_</t>
+          <t>kylie_canuel</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>abby.rumbaugh</t>
+          <t>g__y__m__love2</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>datphan2801</t>
+          <t>stephanie.schmuck</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>henry.cnu27</t>
+          <t>ana.cernock</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>melissa.mcd1782</t>
+          <t>steph_strike</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>bwh1248</t>
+          <t>toni_thecnupig</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>na.te622</t>
+          <t>pattyd623</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>house_79</t>
+          <t>sarah_devlinnn</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jalitz4</t>
+          <t>madison.litchford</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>jerry_cashwell42</t>
+          <t>makaylaaagraceee</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>iank.yay</t>
+          <t>cnu.cki</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>bmsmitty10</t>
+          <t>alexandra__acevedo</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>kimj582</t>
+          <t>emilyy_lacyn</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>nina._pollard</t>
+          <t>marianrraquel</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>maddy1220_</t>
+          <t>wecarecnu</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>bbellamerkk</t>
+          <t>emmaender14</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jordynnpowell</t>
+          <t>imnotned</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>itsjazmineko</t>
+          <t>cnonn23</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>djdevine1</t>
+          <t>1take.jack</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ellenroedenbeck</t>
+          <t>cnu_wib</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jamesfinan13</t>
+          <t>waltar_bummingham</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>n0_logan</t>
+          <t>mmlc_life</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>will.n.westbrook</t>
+          <t>sadthursday246</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_.mx.sinister_</t>
+          <t>kate_lamendola</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>gracemads04</t>
+          <t>maddy.caa</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>cadence.mc.person</t>
+          <t>theadrianamyles</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>elizabeth_s_ginger</t>
+          <t>daniellerivers_</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>cindydawn324</t>
+          <t>rawls89</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>aaaaaaa_yden</t>
+          <t>asian.idk</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>k_.monroe._</t>
+          <t>biscuit_archer</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>forde_hall</t>
+          <t>alexis.gehringg</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>joshriutta</t>
+          <t>escar1416</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>danabaer5</t>
+          <t>cnu_dogs</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>kirashurtliff</t>
+          <t>katie_bshub</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jenna_williams_</t>
+          <t>kyle_hodous</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>bandypeyton</t>
+          <t>cole.nevins</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>evan.young42</t>
+          <t>hannah._.louise._</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>cheyanne.rogers.s</t>
+          <t>swimgirl413</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>riahxmarie</t>
+          <t>andy_mann98</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>missy_yarbroughh</t>
+          <t>djrizzo77</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>camden_king_9</t>
+          <t>livv_04</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>southbysea.cnu</t>
+          <t>_chminton</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>henry_monner</t>
+          <t>allybonday</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>brian_to_crazy645</t>
+          <t>_mm._19</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>samanthaeasterr</t>
+          <t>gracietbennett</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>adenkieffaber</t>
+          <t>cnu.cornhole</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>kyle_hodous</t>
+          <t>cnumushrooms</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>allybonday</t>
+          <t>leiladenino_</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>anna.lorz</t>
+          <t>gdodsonhoo</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>immanmabalot</t>
+          <t>samanthaeasterr</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>siefkeremma</t>
+          <t>onomatophiiaa</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>therealnoahharris</t>
+          <t>abbyavellino</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>757_kevinlee</t>
+          <t>hannahwoodsonn</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>abegrooms</t>
+          <t>monettimes</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>_.katie_sullivan._</t>
+          <t>jenniferwb19</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ben.gebreselassie</t>
+          <t>jonah_oboyle</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>sophiekissman</t>
+          <t>jay_dubya_burner_account</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ashley.vallone</t>
+          <t>kyleerei_05</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>gianniganci7</t>
+          <t>jenadcock</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>kroberts_76</t>
+          <t>itsjazmineko</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>caydengrasso</t>
+          <t>my.7th.sense</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>_alecdesmond</t>
+          <t>evan_anderegg10</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>scott.jaydn</t>
+          <t>aviannamcwhorter</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>will_marazita</t>
+          <t>johnarugg</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>kyleerei_05</t>
+          <t>zoe.hawkins.37</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>mterrell01</t>
+          <t>biv.on.top</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>emmalugo.9</t>
+          <t>courtney.king09</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>scheerjoy</t>
+          <t>gaysills</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>tlol816</t>
+          <t>kaylagmcq</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>the_j.kill.flemm_14</t>
+          <t>adalee.williamss</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>madi.murphyy</t>
+          <t>cnuassc</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>elise.ventura</t>
+          <t>vachocolates</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jack_02664</t>
+          <t>crump081206</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>nancystopper</t>
+          <t>maciii.lynn</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ryaneoneal</t>
+          <t>elise.ventura</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>hayhayreneeee</t>
+          <t>kateflanders20</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>simara.alex</t>
+          <t>brunelle_kamsu</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>lina.hrtly</t>
+          <t>cabell_saunders22</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>jlemsey</t>
+          <t>emilie.shoults</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>sydhakanen</t>
+          <t>ben.gebreselassie</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>djrizzo77</t>
+          <t>nidy05</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>antis0cial23</t>
+          <t>sarahedake</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>joemb2001</t>
+          <t>cnupolisci</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>syd.underwood</t>
+          <t>junmei_xie</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>seamus_mcpherson12</t>
+          <t>deegee_703</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>lilibro</t>
+          <t>charisse.bonsu</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>aykoenig</t>
+          <t>zsummer419</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>_chminton</t>
+          <t>the_j.kill.flemm_14</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>kameron.s04</t>
+          <t>verus976</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>mollylichty</t>
+          <t>mhh1227</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>erikaseyes</t>
+          <t>stacyhackworth</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>c.holmes03</t>
+          <t>stephenlamarburton5</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>shurt_ohana</t>
+          <t>joejoeavellino</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>maamek_agye</t>
+          <t>caroline_cyrille</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>wiley_lil</t>
+          <t>_.caleb0410._</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ryan.westhoff</t>
+          <t>dom4__</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>susan.vorster.5</t>
+          <t>tsecrist53</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>uglymf.com_</t>
+          <t>davidhayes1969</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>jason_trag</t>
+          <t>_.katie_sullivan._</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>_jsears_</t>
+          <t>kantean_145</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>queen_beckc</t>
+          <t>tye.grant_</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cnuintervarsity</t>
+          <t>justallison4u</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>eviepisano</t>
+          <t>jacobl3323</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>maria.s0rensen</t>
+          <t>_keiranguyen</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>jackorrock</t>
+          <t>cnucrossfit</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>_sebastiann.r</t>
+          <t>jason_trag</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>gabbi_amerson05</t>
+          <t>wendyhdaughtrey</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>_alantz_</t>
+          <t>greti529</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>darkshadowlady23</t>
+          <t>cullen.webster</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jacobl3323</t>
+          <t>robert.j.henke</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>hayden.julian</t>
+          <t>ogrowney4</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cooperd_23</t>
+          <t>madi.murphyy</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>twospidurs</t>
+          <t>nolan_dibbs</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>schaad.annie</t>
+          <t>ryaneoneal</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>jennifer.l.persinger</t>
+          <t>curly.head_iz</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>alex_sorb</t>
+          <t>4emersons</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>junmei_xie</t>
+          <t>xialnb</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>alli_in_wondrerland</t>
+          <t>sammyfoos</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>connor.robbins.9</t>
+          <t>samantha__dorn</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>jenniferhuntcreates</t>
+          <t>tayloraveryshoe</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>shane.gobell</t>
+          <t>mack.sowonik</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>madisonpeak14</t>
+          <t>becca.mann05</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>caroline.lucille.c</t>
+          <t>terwilligerjacob103</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>nnataliee_s</t>
+          <t>skysurfer_v2</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>jomemohopo._</t>
+          <t>iam_charlieclawson</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>kins__22</t>
+          <t>becky.plate</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>jordan_roark9</t>
+          <t>emily.s.kenny</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>terrygray682</t>
+          <t>popfloristus</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>emm4cull3n</t>
+          <t>patrick.ebel</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>cnu.osi</t>
+          <t>jeffrey_kent</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>mack_.2023</t>
+          <t>cnugreeklife</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>fgc.cnu</t>
+          <t>jebhoge</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>egibson_17</t>
+          <t>joemb2001</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jebhoge</t>
+          <t>malloryyhess</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>candace.slaw</t>
+          <t>makenzie.nations</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>samantha__dorn</t>
+          <t>allbranns</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jessminter83</t>
+          <t>cookycat6</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>jhunt9245</t>
+          <t>seth_uhhh_cox</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>rellis_8</t>
+          <t>phoebe.adams_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sean_bowman_original</t>
+          <t>christmas_maniac2.0</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>jdak16_</t>
+          <t>j.hhendricks</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>joeyybreeden</t>
+          <t>emrhoades02</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>lsalapka</t>
+          <t>k.wilde88</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>cnu_dogs</t>
+          <t>caroline.webster</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cooper.meads</t>
+          <t>mewobug</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>simov.evan</t>
+          <t>abbysdumb.mp3</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>kaylagraceec</t>
+          <t>piper_eve12</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>z_wali23</t>
+          <t>corinnehaynie</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>melibel1222</t>
+          <t>lwd230950</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>su_mnoe</t>
+          <t>maddieh1cks</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>bre._.dorrian</t>
+          <t>mark_vorster66</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>izukumidoryia1776</t>
+          <t>matt_digiovanna67</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>alysiamaxie</t>
+          <t>ella_bhr</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ladysorsha</t>
+          <t>henry.gagnier5</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>popfloristus</t>
+          <t>an.eric.trager</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>hi_ella5</t>
+          <t>cnutabletennis</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>vickifox2020</t>
+          <t>jakekanter02</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>joggingcabbagejar</t>
+          <t>joeithatjit</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>5gammons</t>
+          <t>lizhiltz</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>natal3a_</t>
+          <t>marysa.helms</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kayleewilliams_1</t>
+          <t>eviepisano</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>lizhiltz</t>
+          <t>bellagbowen</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>rebthom_5</t>
+          <t>_wanglie_</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>jonmatney25</t>
+          <t>trbeggs</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>the_real_jonker</t>
+          <t>cicifaberr</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>owen_henke</t>
+          <t>cnualtbreaks</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>kheath9812</t>
+          <t>shekinahtung</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>largedarkrooster</t>
+          <t>justin_moravek</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>surfrider_cnu</t>
+          <t>bryson._70</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>susanpirnat</t>
+          <t>chrisjeffi2</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>car_rivera24</t>
+          <t>scheerjoy</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>justallison4u</t>
+          <t>djkyle_1</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>caleighhelizabeth</t>
+          <t>mila_nortje</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>drew_is_fatal</t>
+          <t>dom_gallina__</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>figmomx3</t>
+          <t>charliestuart04</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>matthew.brantley.11</t>
+          <t>grace_ellen.05</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>rwm.1300</t>
+          <t>kellykapowski223</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>dankwa._</t>
+          <t>abby213141</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>bellsooz</t>
+          <t>caleighhelizabeth</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>smalldron_f</t>
+          <t>largedarkrooster</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>livcoburn_</t>
+          <t>peter.lane7</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>leah_hedrickk</t>
+          <t>brownleyhannah</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>gabriellafstaples</t>
+          <t>jlemsey</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>jaj_tribe94</t>
+          <t>cnubaking</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>anthony.douglas123</t>
+          <t>realjaemi</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>emilialarsonn</t>
+          <t>matilah.pg</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>fourbearcubs</t>
+          <t>briana.pecora</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>amber.vandermeer74</t>
+          <t>gracemads04</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>sra.lrnz</t>
+          <t>axolotldreamss</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>beancounter1103</t>
+          <t>hughbmartin366</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>l0v3chelsea</t>
+          <t>jess.mackzie</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>drago_steraggo</t>
+          <t>your_angenie</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>subin3979</t>
+          <t>fgc.cnu</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>gfisher_diehl_10</t>
+          <t>lexi.kantor26</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>orion.luera</t>
+          <t>kgseaford</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>fooslee1</t>
+          <t>em_avren</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>my.7th.sense</t>
+          <t>heatheralmy</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>grady.fleming</t>
+          <t>isabellamcdonald._</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>julietteredding_</t>
+          <t>house_79</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>rhoades2047</t>
+          <t>anthony.douglas123</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>jgorrockcpa54</t>
+          <t>ellafallenn</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>elliot_frnch123</t>
+          <t>mckenna.findley</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>briaamk</t>
+          <t>leah.elisaa</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>cnucab</t>
+          <t>lina.hrtly</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ema.virginia</t>
+          <t>bellasiddons</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>cnu.onion</t>
+          <t>cnusigmataudelta</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>david.a.77_</t>
+          <t>iank.yay</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>cadencewelchh</t>
+          <t>maddy1220_</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>annteconchuk</t>
+          <t>hannahbrumbaughh</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>waltar_bummingham</t>
+          <t>rwm.1300</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>redcupcnu</t>
+          <t>daymanparrish</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>gma_farley</t>
+          <t>shantelleviel</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>christopher.amerson</t>
+          <t>ms_deenajc</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>vachocolates</t>
+          <t>alli_in_wondrerland</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>maria.detrane</t>
+          <t>micaela.1024</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>phoebezhu_</t>
+          <t>ellenroedenbeck</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>elias.e.lemus</t>
+          <t>gfisher_diehl_10</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>meganelizabeth_08</t>
+          <t>oxymoron0506</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>nylahhh.2.0</t>
+          <t>mason.n800</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>andidalba</t>
+          <t>jill.orrock</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>akins.shelby</t>
+          <t>noah_martin_7</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>cnuwantsbikes</t>
+          <t>darkshadowlady23</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>cicifaberr</t>
+          <t>charswan11</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>vkoryn.19</t>
+          <t>perfectfam22</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2e2m2t</t>
+          <t>cooperd_23</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>annikags5</t>
+          <t>jadendriver</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>zsummer419</t>
+          <t>joggingcabbagejar</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>stephpatt23</t>
+          <t>brianweiser_</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>junhaolin220</t>
+          <t>southbysea.cnu</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>yrberrygf</t>
+          <t>claraprill</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ella.miller16</t>
+          <t>mwlugo</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>schlosseremma</t>
+          <t>lauren.j9</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>mett_to</t>
+          <t>evan_pawsat</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>your_angenie</t>
+          <t>susanneoshry</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>joshms31</t>
+          <t>water_sauce_drink</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ryan_adams_32</t>
+          <t>brianna.groves_</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>madeline__kirk</t>
+          <t>mwbandy</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>annie.l.griffin</t>
+          <t>michael_messeh</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>erin_g29</t>
+          <t>schlosseremma</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>kateflanders20</t>
+          <t>ellie_clements13</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>cnugreeklife</t>
+          <t>tlol816</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>_.sid._the._squid</t>
+          <t>alexis_walk35</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>will_fitch01</t>
+          <t>kkatetaborr</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>_sethwhipkey</t>
+          <t>never_gonna_glve_you_up</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>taleentimani</t>
+          <t>benhager_</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>cnupolisci</t>
+          <t>aldrin.eleanor</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>mythic_musique</t>
+          <t>matthew.brantley.11</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ella_bhr</t>
+          <t>ya.nixa</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>david.lowry7</t>
+          <t>bobwhitenc</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>stutteringpastor</t>
+          <t>juliaallison__</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,940 +4908,10 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>sierra.pratzner</t>
+          <t>lilyknowlesc</t>
         </is>
       </c>
       <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>emmak7234</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>tye.grant_</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>emmahagerrr</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>yo.mikayla</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>_scamuel</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>lamonperry</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>b.wyant04</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>diane_hoffman_80</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>emily.cr.y</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>_satarnoori</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>aleeeeooop</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>bman1050</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>pattyd623</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>connor_isnt_toxic</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>elliechristopher</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>wendymcintyre61</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>brooke._.817</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>nick_sheets_18</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>jamiegraham22</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>eveleigh_erin</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>presleadcnu</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>_alannabgriffin_</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>christophernewportu</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>steph_strike</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>m.v.i.l.l.a.n.u.e.v.a</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>alice.lindd</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>huz.jaden</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>livv_04</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>alyssawarnick</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>lilyknowlesc</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>mads.ingramm</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>cnutriblib</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>lillieskis</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>lilly_8978</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>samuel_stubbs_</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>marlyhoefler</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>peter.lane7</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>j_julianna24</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>hp0fjsis</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>m.james.294</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>knitknots9</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>jonah_oboyle</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>piper_eve12</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>jenavellino</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>j.ckson_ck</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>chrisjeffi2</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>carleighmelinda</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>amarjitrahi</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>lillykkathryn</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>lmd.1dk</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>mewobug</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>eestrada34</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>_lillianstowe</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>cow_go_moooooooooo</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>mack.sowonik</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>sabrina_cordovana</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>adt_2704</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>langston_j1</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>smiling_savoyard_studios</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>them_smiths</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>logan_fields1</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>cameronhoskins_</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>missmeilya</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>colin_davisx</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>bb___brian</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>cas_cnu</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>maer.lynn</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>j._galt</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>sara.hobbs.9022</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>abi._321</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>k.wilde88</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>_sarahpolk</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>a_growney08</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>cnulams</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>ya.nixa</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>spanish_cnu</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>sarahwebel</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>screaminggoat87</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>will.tooill</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>savannahrose7</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>impossiblewhopper193</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>cookycat6</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>never_gonna_glve_you_up</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>jasoncooney__13</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>maddy.caa</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>djkyle_1</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>kathleenmakolinski</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>tori.glynnn</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>katherinessavage</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>robert.j.henke</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>tatumfosterr</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>bchiles_12</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>robbybobby_5</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/cnu.roomme.xlsx
+++ b/Marketing/cnu.roomme.xlsx
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/cnu.roomme.xlsx
+++ b/Marketing/cnu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B448"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>samuel_stubbs_</t>
+          <t>pollylatham26</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>reagan.a.brown</t>
+          <t>cnumenslax</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>susan.vorster.5</t>
+          <t>micheilaa</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cat.camarota</t>
+          <t>anthony.zicari5</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>samneto85</t>
+          <t>boxermomx2</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dstnyswiss</t>
+          <t>emmaender14</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>melissaaa5110</t>
+          <t>maya.nicolaus</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>amysid01</t>
+          <t>emma.jenkinsss</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>henry.cnu27</t>
+          <t>reeve.fen</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>samantha.p.carrier</t>
+          <t>wendylittlepearson</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>casey337</t>
+          <t>da_hoar2005</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nounou9753</t>
+          <t>tortilenni</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>natal3a_</t>
+          <t>noelle.starr</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kroberts_76</t>
+          <t>su.doo</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>impossiblewhopper193</t>
+          <t>hopespencer999</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fooslee1</t>
+          <t>maddy.sager</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_zakk_</t>
+          <t>madison.litchford</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>jamiegraham22</t>
+          <t>logan.glen</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mack_.2023</t>
+          <t>cnutabletennis</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>da_hoar2005</t>
+          <t>m.ocon8036</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cady0r</t>
+          <t>cadence.mc.person</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>meriliccaleb</t>
+          <t>camillemtjoy101</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pageehenry</t>
+          <t>kburns_artist</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>madiison222</t>
+          <t>yagurlb_27</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>theonlyyev</t>
+          <t>juliaasink_</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>itz.theresaa</t>
+          <t>alexpekala_</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tatumfosterr</t>
+          <t>jennmoff</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>brian_to_crazy645</t>
+          <t>dynski_mom_13</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dani_cling</t>
+          <t>lyds.20</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>the.kuz1</t>
+          <t>kelly_via_</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aj.muir3</t>
+          <t>cjpettus</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cas_cnu</t>
+          <t>lllaaaurreenn</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>amandarooker</t>
+          <t>kj_mcdermott</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>kendraweigand</t>
+          <t>_hannah_m._</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>logan_fields1</t>
+          <t>jaydenturner13</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nicolemburch_</t>
+          <t>henry.gagnier5</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_satarnoori</t>
+          <t>tracymaehendrix_</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>abby.rumbaugh</t>
+          <t>kayleebnntt</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>therealnoahharris</t>
+          <t>hayley.berrick</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>diane_hoffman_80</t>
+          <t>cnustorm</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ethan.pace16</t>
+          <t>savvydunn</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>palmer_bogdan645</t>
+          <t>julesofjewels</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cnu.onion</t>
+          <t>stephpatt23</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bcf_1231</t>
+          <t>spanish_cnu</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ohman497</t>
+          <t>ogrowney4</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>alexf472</t>
+          <t>fammynava</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>abby_davis201714</t>
+          <t>gisttj</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>antis0cial23</t>
+          <t>robertjlangeiii</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>eli_novario</t>
+          <t>jkbrink04</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>candace.slaw</t>
+          <t>mikey.some.guy04</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>siefkeremma</t>
+          <t>her_name_was_bella</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>chrissymay3535</t>
+          <t>steffable</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>danmarchinkoski</t>
+          <t>makenzie.nations</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>radersydney</t>
+          <t>alexischolland</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ourpopsy</t>
+          <t>anthonyteles_</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ryan_bend3r</t>
+          <t>maddiesteeleee</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>relayforlife_cnu</t>
+          <t>laura_leigh_ward</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>adenkieffaber</t>
+          <t>york.river</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>kaylagraceec</t>
+          <t>lydiaharte10</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>andrew.w.hoge</t>
+          <t>gwenlfarley</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>rajxnnnn_</t>
+          <t>lizzie__clare</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>xxchloeking</t>
+          <t>sam_ellyson11</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>huz.jaden</t>
+          <t>allisxnpw</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>aaaaaaa_yden</t>
+          <t>ajgoller</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>landonpeterson_3</t>
+          <t>ambrosiaquartet</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>zoey_lyn_913</t>
+          <t>bitanyaaloto</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>potomacriverhall_cnu</t>
+          <t>jo_leigh4</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>kirashurtliff</t>
+          <t>adkins.mags</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gma_farley</t>
+          <t>hannah._greer</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>momand3</t>
+          <t>katlinjohnston1</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>rileyespring</t>
+          <t>k.mysteries05</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>katherinessavage</t>
+          <t>cheld_20</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dawne.ruggiero</t>
+          <t>naomiomiomiomiomi</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>aaronwernow</t>
+          <t>abby.lucas</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>samanthaschutt10</t>
+          <t>malloryyhess</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>kelseyyedwardss</t>
+          <t>nlshubert</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>kimmiehug</t>
+          <t>corynne_d</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>toahollenbeck_</t>
+          <t>ben_mickeyds</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>caroline.lucille.c</t>
+          <t>arlingtonkofc</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>jackorrock</t>
+          <t>kyleerei_05</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>texastovb</t>
+          <t>daymanparrish</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jamesfinan13</t>
+          <t>bellasiddons</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bchiles_12</t>
+          <t>firstchurchministries</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>_onfyre4god_</t>
+          <t>violetsather</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ryleigh.greeves</t>
+          <t>_bgcvp</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cadencewelchh</t>
+          <t>cnuwsoccer</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2e2m2t</t>
+          <t>claraprill</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>m_deveraux</t>
+          <t>cnutriblib</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>alice.lindd</t>
+          <t>kendra.bush2</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sydhakanen</t>
+          <t>abbie.rogers_</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>rufcnu</t>
+          <t>deltaupsiloncnu</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>melibel1222</t>
+          <t>ellieggarrison</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bonner.jackson</t>
+          <t>menhealing</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>grantgarrison777</t>
+          <t>ya.nixa</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>nettymatt</t>
+          <t>bigzc8</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>spookky98</t>
+          <t>nate__baum</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>na.te622</t>
+          <t>mrsgreene15</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>joshriutta</t>
+          <t>danialvrz29</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>bitanyaaloto</t>
+          <t>brookenorthcraftt</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ryana.tchison</t>
+          <t>carlyyrobins</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>rapture_ry</t>
+          <t>llwilson514</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>delaney.reper</t>
+          <t>htimshannahl</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>nancystopper</t>
+          <t>kelsey.kocher</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>robertjdillingham</t>
+          <t>chaariisma</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mrsdeedy</t>
+          <t>_it_luke_</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>lukeoeaddy05</t>
+          <t>nicolesenkowski</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mlsbrantley</t>
+          <t>cnuwtennis</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_sethwhipkey</t>
+          <t>evangreen14</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>marky.121</t>
+          <t>potomacriverhall_cnu</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>grant_seif</t>
+          <t>shellsups</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>djjonnibravo</t>
+          <t>joey.johnstone12</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mattstakem</t>
+          <t>tucholskikristin</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>stoobyl13</t>
+          <t>cnu_ppgen</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>livcoburn_</t>
+          <t>desert.hues</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>shilohbthompson</t>
+          <t>dr_lewis_f</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>kfarns15</t>
+          <t>ashleyk.1647</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>_samantha.rivas_</t>
+          <t>jilldubya</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>drea_alonso22</t>
+          <t>jdonnelly99</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>meredithallmond</t>
+          <t>_slyth3rin__</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>joyfuloguibe</t>
+          <t>rachel.hhull</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>karen.papa.31</t>
+          <t>jack_peery</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jeb_veatch_</t>
+          <t>zackzimmerman_</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>amy_bippert</t>
+          <t>katrinaandersonn</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>abi._321</t>
+          <t>lilykerr.24</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>emelithshiley</t>
+          <t>anjaahall</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>qstorm70</t>
+          <t>jess.mackzie</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lucygoosy_11</t>
+          <t>cnuesports</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>squeakybird999</t>
+          <t>cnuacda</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>smiling_savoyard_studios</t>
+          <t>apoatcnu</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ethandpope</t>
+          <t>emmalriddle</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,707 +1748,707 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>adrienn_gr24</t>
+          <t>calebelkins312</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>tommy._.ennis</t>
+          <t>glendale_pool</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mary_chess</t>
+          <t>sweetheart_rach</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jennifer.l.persinger</t>
+          <t>mckenna.findley</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>james__mcq</t>
+          <t>ashley_kimdee</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>luhvashley</t>
+          <t>peytoncromley</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>simara.alex</t>
+          <t>cnu_ifc</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>_loganmcnabb</t>
+          <t>cardinals_care</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>karlijoy15</t>
+          <t>kate.lizabeth</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>j.baer1</t>
+          <t>ava.kilmer</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>immanmabalot</t>
+          <t>baxtervendrick</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>missy_jordan123</t>
+          <t>katie.lipscomb7</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>j_julianna24</t>
+          <t>lgbtqaffinitycnu</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>_.mx.sinister_</t>
+          <t>rcrutcher72</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>bennett_carlton</t>
+          <t>the_jakerrr</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>slartichoke</t>
+          <t>p.cole254</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ahs.cnu</t>
+          <t>in.my.right.mind21</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>rickpitterle</t>
+          <t>izukumidoryia1776</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sierra.pratzner</t>
+          <t>ha.van.aaaaa</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>willr_ow</t>
+          <t>sathomas_</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>djdevine1</t>
+          <t>lillykkathryn</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>caroline.woodward_04</t>
+          <t>rachell.taylorrr</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>jasminee.williamss</t>
+          <t>lyddunaway</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>katebweaver_</t>
+          <t>ryank703</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>sam__j64</t>
+          <t>peter.lane7</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kayleewilliams_1</t>
+          <t>amysid01</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lisah5940</t>
+          <t>cnubcm</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>kaeleigh_ann21</t>
+          <t>leighdp</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>cnuintervarsity</t>
+          <t>madeleineelizaa</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>triplethreatminority</t>
+          <t>toni_thecnupig</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>breom._</t>
+          <t>adrienn_gr24</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ellieggarrison</t>
+          <t>erin.kkline</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>wendymcintyre61</t>
+          <t>therealnoahharris</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ipufffy</t>
+          <t>maddynrelliott</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>robertadaviswrenn</t>
+          <t>disneydanserr</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>shane.gobell</t>
+          <t>bbmom_2025</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>taleentimani</t>
+          <t>samanthaeasterr</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>dannyl826</t>
+          <t>julie.stonier</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>c.grover34</t>
+          <t>candace.slaw</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>henry_monner</t>
+          <t>brelynpowell</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_lynsey_cox_</t>
+          <t>curtisdavidson1962</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>connor_isnt_toxic</t>
+          <t>james_liebowitz</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>_zacharycharles_</t>
+          <t>brownleyhannah</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ssarahhendricks</t>
+          <t>doctormodelmom</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>surfrider_cnu</t>
+          <t>brantley.patrick</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kristawyman</t>
+          <t>dasanchez_05</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>esnyder26</t>
+          <t>cocochannnelle</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>camden_king_9</t>
+          <t>hhaleybrookee_</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>nick_sheets_18</t>
+          <t>eglue03</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>sara.hobbs.9022</t>
+          <t>gretchenkweber</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>_lillianstowe</t>
+          <t>slhs_counselors</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>cnucomm</t>
+          <t>alannakb04</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mett_to</t>
+          <t>msa_cnu</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>the.3rdeye.therapist</t>
+          <t>jenblyler</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>cnuwrugby</t>
+          <t>shekinahtung</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mterrell01</t>
+          <t>soren_flying14</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>lilly_8978</t>
+          <t>alexishelmer96</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>lmd.1dk</t>
+          <t>cnu_fellows</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>d.warnick75</t>
+          <t>kenz.whitehurst</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>austin_mahomesss</t>
+          <t>_tessa.rodriguez</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>spanish_cnu</t>
+          <t>lueaglescholars</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>redcupcnu</t>
+          <t>thesterlingsaddle</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>klowe2210</t>
+          <t>kendallverbrugge</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>graceealynn</t>
+          <t>bkpawsat</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>sociologycnu</t>
+          <t>kdrcnu</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>francis.miller.1971</t>
+          <t>whitglidewell</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>kylie_canuel</t>
+          <t>halleraquel</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>g__y__m__love2</t>
+          <t>pinkmickeymom1</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>stephanie.schmuck</t>
+          <t>colby._.lee</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ana.cernock</t>
+          <t>siemma0522</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>steph_strike</t>
+          <t>cnufh</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>toni_thecnupig</t>
+          <t>am.wilfong</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>pattyd623</t>
+          <t>zentaylordrummer</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sarah_devlinnn</t>
+          <t>g.a.t</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>madison.litchford</t>
+          <t>sydneyy.hicks</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>makaylaaagraceee</t>
+          <t>kassidyreed_</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>cnu.cki</t>
+          <t>haleigh.earsing</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>alexandra__acevedo</t>
+          <t>aaliyah.s.smith</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>emilyy_lacyn</t>
+          <t>ella.ryleigh</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>marianrraquel</t>
+          <t>zoey_lyn_913</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>wecarecnu</t>
+          <t>haleyhendel_</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>emmaender14</t>
+          <t>757_xd</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>imnotned</t>
+          <t>willr_ow</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>cnonn23</t>
+          <t>skyler_tennis</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1take.jack</t>
+          <t>stephanieparkerknott</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>cnu_wib</t>
+          <t>jonathon.leiding</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>waltar_bummingham</t>
+          <t>cnureslife</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>mmlc_life</t>
+          <t>charswan11</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sadthursday246</t>
+          <t>haleighdbrooks</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>kate_lamendola</t>
+          <t>thrivepeninsula</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>maddy.caa</t>
+          <t>kristyytsang</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>theadrianamyles</t>
+          <t>corinnehaynie</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>daniellerivers_</t>
+          <t>james__mcq</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>rawls89</t>
+          <t>caleighhelizabeth</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>asian.idk</t>
+          <t>katiebsox</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>biscuit_archer</t>
+          <t>carringtonnhayes</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>alexis.gehringg</t>
+          <t>adt_2704</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>escar1416</t>
+          <t>orson_lange</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>cnu_dogs</t>
+          <t>julian.d.cruz</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>katie_bshub</t>
+          <t>ap_webb</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>kyle_hodous</t>
+          <t>devonwieters</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>cole.nevins</t>
+          <t>nicole.laurenn_</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>hannah._.louise._</t>
+          <t>trbeggs</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>swimgirl413</t>
+          <t>ashlynshearin</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>andy_mann98</t>
+          <t>sun_shine_sarah</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>djrizzo77</t>
+          <t>nathanjoelrivera2</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>livv_04</t>
+          <t>cnu2026</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>_chminton</t>
+          <t>brianaleetolleson</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>allybonday</t>
+          <t>dillyn.minson</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>_mm._19</t>
+          <t>katmartin.16</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>gracietbennett</t>
+          <t>battlefieldcounseling</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>cnu.cornhole</t>
+          <t>klgm22</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>cnumushrooms</t>
+          <t>jesscruz30</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>leiladenino_</t>
+          <t>savannahh.cheatham</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>gdodsonhoo</t>
+          <t>eeskridge._w</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>samanthaeasterr</t>
+          <t>lilly.petty._</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>onomatophiiaa</t>
+          <t>klkjohnson</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>abbyavellino</t>
+          <t>reese_tunstall19</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>hannahwoodsonn</t>
+          <t>e.bowman_64</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>monettimes</t>
+          <t>aeleen_g</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>jenniferwb19</t>
+          <t>johnarugg</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>jonah_oboyle</t>
+          <t>ep_mae16</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>jay_dubya_burner_account</t>
+          <t>piper_eve12</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>kyleerei_05</t>
+          <t>cnuapo</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>jenadcock</t>
+          <t>bronwyn.beardsley</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>itsjazmineko</t>
+          <t>itz.jesss_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>my.7th.sense</t>
+          <t>cami_brxght</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>evan_anderegg10</t>
+          <t>fgc.cnu</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>aviannamcwhorter</t>
+          <t>ella.hardy</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>johnarugg</t>
+          <t>lindseyhankinss</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>zoe.hawkins.37</t>
+          <t>gabp.ow</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>biv.on.top</t>
+          <t>marinersmuseum</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>courtney.king09</t>
+          <t>itscarolinelewis</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>gaysills</t>
+          <t>sfl_cnu</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>kaylagmcq</t>
+          <t>ishpy22</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>adalee.williamss</t>
+          <t>cocoxcraft</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>cnuassc</t>
+          <t>strawygrrr</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>vachocolates</t>
+          <t>tabhendershot</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>crump081206</t>
+          <t>caroline_cyrille</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>maciii.lynn</t>
+          <t>kayla.petrakis</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>elise.ventura</t>
+          <t>abby_davis201714</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>kateflanders20</t>
+          <t>ethandpope</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>brunelle_kamsu</t>
+          <t>_ingram.mads</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>cabell_saunders22</t>
+          <t>char.fowlr</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>emilie.shoults</t>
+          <t>abby_mertes</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ben.gebreselassie</t>
+          <t>swaatcnu</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>nidy05</t>
+          <t>bre._.dorrian</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>sarahedake</t>
+          <t>audreylihos</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>cnupolisci</t>
+          <t>grace.almacy</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>junmei_xie</t>
+          <t>xxchloeking</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>deegee_703</t>
+          <t>corcordan</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>charisse.bonsu</t>
+          <t>_madi.clayton</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>zsummer419</t>
+          <t>__adalyn</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>the_j.kill.flemm_14</t>
+          <t>cnu_takenote</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>verus976</t>
+          <t>amberlomele</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>mhh1227</t>
+          <t>kyleehilbert</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>stacyhackworth</t>
+          <t>tlol816</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>stephenlamarburton5</t>
+          <t>hanschnee3</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>joejoeavellino</t>
+          <t>rsk.dezzie</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>caroline_cyrille</t>
+          <t>cnu_extrememeasures</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>_.caleb0410._</t>
+          <t>_melaniesdiaz._</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>dom4__</t>
+          <t>a.steadman12</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tsecrist53</t>
+          <t>madelynn.janee</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>davidhayes1969</t>
+          <t>babybrkn04</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_.katie_sullivan._</t>
+          <t>cnu_bsu</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>kantean_145</t>
+          <t>maryannreesee</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tye.grant_</t>
+          <t>mckaylareyertfxc</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>justallison4u</t>
+          <t>stephanieglangan</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jacobl3323</t>
+          <t>southcountyhs</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>_keiranguyen</t>
+          <t>carson.cofer</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>cnucrossfit</t>
+          <t>aaaaaaa_yden</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>jason_trag</t>
+          <t>alexa_lerner10</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>wendyhdaughtrey</t>
+          <t>sarahp_ramsey</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>greti529</t>
+          <t>platosclosetmanassas</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>cullen.webster</t>
+          <t>kayla.marie_3</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>robert.j.henke</t>
+          <t>aallyson.r</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ogrowney4</t>
+          <t>_amdood</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>madi.murphyy</t>
+          <t>dakotachisholm1</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>nolan_dibbs</t>
+          <t>maximus_strasbaugh</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ryaneoneal</t>
+          <t>e.mma.christine</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>curly.head_iz</t>
+          <t>_haylee_joo</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>4emersons</t>
+          <t>taylormillerrr_</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>xialnb</t>
+          <t>_sara.wilson</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>sammyfoos</t>
+          <t>juliaschutzzz</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>samantha__dorn</t>
+          <t>erinasample</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>tayloraveryshoe</t>
+          <t>_lillianstowe</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>mack.sowonik</t>
+          <t>ginamantis_</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>becca.mann05</t>
+          <t>enzbrop</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>terwilligerjacob103</t>
+          <t>cnu.asu</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>skysurfer_v2</t>
+          <t>currentslitmag</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>iam_charlieclawson</t>
+          <t>annie_in_wonderland_</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>becky.plate</t>
+          <t>emmalyn_grace</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>emily.s.kenny</t>
+          <t>_bower_power_</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>popfloristus</t>
+          <t>jordynturner3</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>patrick.ebel</t>
+          <t>santig.z</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>jeffrey_kent</t>
+          <t>cinders_elly</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>cnugreeklife</t>
+          <t>reagin.luby11</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jebhoge</t>
+          <t>wh0.is_tay</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>joemb2001</t>
+          <t>bebe_lexie</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>malloryyhess</t>
+          <t>nina._pollard</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>makenzie.nations</t>
+          <t>jessicadornak50</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>allbranns</t>
+          <t>elizabethmcclanahann</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>cookycat6</t>
+          <t>elliot_frnch123</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>seth_uhhh_cox</t>
+          <t>cnuassc</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>phoebe.adams_</t>
+          <t>dr.katcatdoctor</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>christmas_maniac2.0</t>
+          <t>chelsea.nett</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>j.hhendricks</t>
+          <t>rrhymeswithdave</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>emrhoades02</t>
+          <t>miakat.31</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>k.wilde88</t>
+          <t>katelyn.newell</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>caroline.webster</t>
+          <t>rachel.dillonnnn</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>mewobug</t>
+          <t>alanajohnsn</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>abbysdumb.mp3</t>
+          <t>abimarie03</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>piper_eve12</t>
+          <t>dssh123</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>corinnehaynie</t>
+          <t>jooshfoe</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>lwd230950</t>
+          <t>cnu_roanoke_alumni</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>maddieh1cks</t>
+          <t>anneporterh</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>mark_vorster66</t>
+          <t>dirt10021</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>matt_digiovanna67</t>
+          <t>alli.pratt21</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ella_bhr</t>
+          <t>07christinab</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>henry.gagnier5</t>
+          <t>hopskocka</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>an.eric.trager</t>
+          <t>largedarkrooster</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>cnutabletennis</t>
+          <t>mayaj2003</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>jakekanter02</t>
+          <t>dstnyswiss</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>joeithatjit</t>
+          <t>charlotte_avalon18</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>lizhiltz</t>
+          <t>cameronderinger</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>marysa.helms</t>
+          <t>mallory.cox2</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>eviepisano</t>
+          <t>_jasonherbert</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>bellagbowen</t>
+          <t>leahmathew28</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>_wanglie_</t>
+          <t>sophiefueg</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>trbeggs</t>
+          <t>kaylagmcq</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>cicifaberr</t>
+          <t>alexisdcoxx</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>cnualtbreaks</t>
+          <t>em.mckenna24</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>shekinahtung</t>
+          <t>_chminton</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>justin_moravek</t>
+          <t>ellena_ianca</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>bryson._70</t>
+          <t>looseitinerary</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>chrisjeffi2</t>
+          <t>norahhhjae</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>scheerjoy</t>
+          <t>maddie.sierraaaa</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>djkyle_1</t>
+          <t>sarahlynnnn_</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>mila_nortje</t>
+          <t>sgmarnold04</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>dom_gallina__</t>
+          <t>cnu2024</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>charliestuart04</t>
+          <t>auburnsmore</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>grace_ellen.05</t>
+          <t>sarahklein200</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>kellykapowski223</t>
+          <t>justine_walton</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>abby213141</t>
+          <t>zullia_nicolle</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>caleighhelizabeth</t>
+          <t>ashleymsanfacon</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>largedarkrooster</t>
+          <t>sam.flippo</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>peter.lane7</t>
+          <t>bcf_1231</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>brownleyhannah</t>
+          <t>caseystaples35</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>jlemsey</t>
+          <t>j_zig13</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>cnubaking</t>
+          <t>xander_kent05</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>realjaemi</t>
+          <t>virginia_.reinhardt</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>matilah.pg</t>
+          <t>em_kg1</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>briana.pecora</t>
+          <t>ptribcnu</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>gracemads04</t>
+          <t>kaeleigh_ann21</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>axolotldreamss</t>
+          <t>collins.annaa</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>hughbmartin366</t>
+          <t>kyleigh_f04</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>jess.mackzie</t>
+          <t>alvaro.herron</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>your_angenie</t>
+          <t>people_for_action</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>fgc.cnu</t>
+          <t>j.c.l.a.y</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>lexi.kantor26</t>
+          <t>mr.epps_vcac</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>kgseaford</t>
+          <t>kirsten.lewis11</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>em_avren</t>
+          <t>henryyktc</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>heatheralmy</t>
+          <t>ethanb.13</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>isabellamcdonald._</t>
+          <t>anna_k_gardner</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>house_79</t>
+          <t>annaandradeeee</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>anthony.douglas123</t>
+          <t>jillian_schmid</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ellafallenn</t>
+          <t>katesportsmann</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>mckenna.findley</t>
+          <t>cnu_equestrian</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>leah.elisaa</t>
+          <t>shepard.munson</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>lina.hrtly</t>
+          <t>chesterfieldsafe</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>bellasiddons</t>
+          <t>catalyst.church</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>cnusigmataudelta</t>
+          <t>gcrva</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>iank.yay</t>
+          <t>dijon1013</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>maddy1220_</t>
+          <t>cindymilesss</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>hannahbrumbaughh</t>
+          <t>yorkriverdental</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>rwm.1300</t>
+          <t>e.poole01</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>daymanparrish</t>
+          <t>kendallgray_</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>shantelleviel</t>
+          <t>maleriehinson</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ms_deenajc</t>
+          <t>goodestories</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>alli_in_wondrerland</t>
+          <t>maria6669</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>micaela.1024</t>
+          <t>emmaajoynerr</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ellenroedenbeck</t>
+          <t>chandabansall</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>gfisher_diehl_10</t>
+          <t>santoro_hall</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>oxymoron0506</t>
+          <t>cnuenglishdept</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>mason.n800</t>
+          <t>djrizzo77</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>jill.orrock</t>
+          <t>celine_jelinski</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>noah_martin_7</t>
+          <t>triana_01</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>darkshadowlady23</t>
+          <t>aaadddiiinnnaaa</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>charswan11</t>
+          <t>julia_pasquine</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>perfectfam22</t>
+          <t>lauren.schlosser</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>cooperd_23</t>
+          <t>zadasudduth</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>jadendriver</t>
+          <t>abby.marie36</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>joggingcabbagejar</t>
+          <t>gabbi_amerson05</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>brianweiser_</t>
+          <t>brianaclavell</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>southbysea.cnu</t>
+          <t>twitch_cyberhex</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>claraprill</t>
+          <t>cnudeltagamma</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>mwlugo</t>
+          <t>hannonhill</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>lauren.j9</t>
+          <t>graceealynn</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>evan_pawsat</t>
+          <t>livcoburn_</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>susanneoshry</t>
+          <t>graciedebest</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>water_sauce_drink</t>
+          <t>tjross09</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>brianna.groves_</t>
+          <t>elladarehodges</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>mwbandy</t>
+          <t>madyysumner</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>michael_messeh</t>
+          <t>vmhamrick</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>schlosseremma</t>
+          <t>leetvt01</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ellie_clements13</t>
+          <t>richgirlchris</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>tlol816</t>
+          <t>allinwithlauren</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>alexis_walk35</t>
+          <t>c.holmes03</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>kkatetaborr</t>
+          <t>annabanana.424</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>never_gonna_glve_you_up</t>
+          <t>gabi.rivellese</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>benhager_</t>
+          <t>alexxkershner</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>aldrin.eleanor</t>
+          <t>alexcanderson</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>matthew.brantley.11</t>
+          <t>abbycarlson.14</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ya.nixa</t>
+          <t>landon_mangano</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>bobwhitenc</t>
+          <t>iamphillip_</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>juliaallison__</t>
+          <t>cnurec</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,10 +4908,250 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>lilyknowlesc</t>
+          <t>connor_butterw</t>
         </is>
       </c>
       <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>gabriellamrizzo</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>sydvonberg</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>drew.cheatham4</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>laneycarnahan</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>elizabethcreed_33</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>ana.cernock</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>o.emilyyyy</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>bellaaa_sangeee</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>cnuwgolf</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>kristine.p12</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>dylanmur25</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>selah_mckensie</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>jacque_denton_whang</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>christmas_maniac2.0</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>isa.chabelita</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>wonderwhasian</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>sofiapint.o</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ava.nda</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>murtkitty</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>bonner_cnu</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>eve.jacquelene</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>sean.conway24</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>cnuauxsvcs</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>cnu_sga</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
         <v>0</v>
       </c>
     </row>
